--- a/Retting.xlsx
+++ b/Retting.xlsx
@@ -4,11 +4,11 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result_xlqt" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="student_mistakes_xlqt" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mistakes_xlqt" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
@@ -483,8 +483,8 @@
   </sheetPr>
   <dimension ref="A1:AE228"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="133" zoomScaleNormal="133" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X12" activeCellId="0" sqref="X12"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="133" zoomScaleNormal="133" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X11" activeCellId="0" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.00390625" defaultRowHeight="15.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7604,19 +7604,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.62109375" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="16" t="inlineStr">
         <is>
           <t>Student ID</t>
@@ -7624,35 +7624,82 @@
       </c>
       <c r="B1" s="16" t="inlineStr">
         <is>
-          <t>Final grade</t>
-        </is>
-      </c>
-      <c r="C1" s="16" t="inlineStr">
-        <is>
           <t>Mistake(s)</t>
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>100test</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>100test</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>100test</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>100test</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1048567" ht="12.8" customHeight="1" s="19"/>
+    <row r="1048568" ht="12.8" customHeight="1" s="19"/>
+    <row r="1048569" ht="12.8" customHeight="1" s="19"/>
+    <row r="1048570" ht="12.8" customHeight="1" s="19"/>
+    <row r="1048571" ht="12.8" customHeight="1" s="19"/>
+    <row r="1048572" ht="12.8" customHeight="1" s="19"/>
+    <row r="1048573" ht="12.8" customHeight="1" s="19"/>
+    <row r="1048574" ht="12.8" customHeight="1" s="19"/>
+    <row r="1048575" ht="12.8" customHeight="1" s="19"/>
+    <row r="1048576" ht="12.8" customHeight="1" s="19"/>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AE6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.62109375" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="16" t="inlineStr">
         <is>
           <t>Mistake ID</t>
@@ -7674,15 +7721,23 @@
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="15" customHeight="1" s="19">
       <c r="A2" s="16" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="16" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="C2" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" s="16" t="inlineStr">
+        <is>
+          <t>voila une explication</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="19">
       <c r="A3" s="16" t="n">
         <v>1</v>
       </c>
@@ -7690,7 +7745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="15" customHeight="1" s="19">
       <c r="A4" s="16" t="n">
         <v>2</v>
       </c>
@@ -7698,7 +7753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="15" customHeight="1" s="19">
       <c r="A5" s="16" t="n">
         <v>3</v>
       </c>
@@ -7706,7 +7761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="15" customHeight="1" s="19">
       <c r="A6" s="16" t="n">
         <v>4</v>
       </c>
@@ -7715,6 +7770,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>